--- a/data/trans_orig/Q5404-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1918</v>
+        <v>1890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10979</v>
+        <v>10838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04185833941131586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01487307983407627</v>
+        <v>0.01465269075768511</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08511548941639237</v>
+        <v>0.08402251117244941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>19124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11943</v>
+        <v>11289</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29915</v>
+        <v>29274</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07025300297629172</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04387306429911892</v>
+        <v>0.04147139521586111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.109896436310529</v>
+        <v>0.1075398223546055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>24523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15519</v>
+        <v>15679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35170</v>
+        <v>35638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06112383882366723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0386811817605537</v>
+        <v>0.03908067345169403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08766105030896734</v>
+        <v>0.08882668723480865</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4437</v>
+        <v>4604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16092</v>
+        <v>15920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06839029421040586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03439719830380636</v>
+        <v>0.03569201572633601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1247493261167721</v>
+        <v>0.1234175347439469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>18287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11307</v>
+        <v>10466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28263</v>
+        <v>28651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06717997457505633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0415366044122502</v>
+        <v>0.03844900053170208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1038288973414273</v>
+        <v>0.1052512526233707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -857,19 +857,19 @@
         <v>27109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18122</v>
+        <v>18506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37954</v>
+        <v>39520</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0675691042649703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04516801997167955</v>
+        <v>0.04612725547195009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09460084260161268</v>
+        <v>0.09850497577910139</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>114770</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107050</v>
+        <v>106695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120021</v>
+        <v>120334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8897513663782782</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8299048306242877</v>
+        <v>0.8271483834417569</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9304587506406694</v>
+        <v>0.9328846667814603</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>231</v>
@@ -907,19 +907,19 @@
         <v>234801</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>221182</v>
+        <v>221589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>245535</v>
+        <v>244642</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8625670224486519</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8125361600830001</v>
+        <v>0.8140322546516</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9020001417376059</v>
+        <v>0.8987178408972246</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>354</v>
@@ -928,19 +928,19 @@
         <v>349571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>335238</v>
+        <v>334547</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>361986</v>
+        <v>362643</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8713070569113625</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.835581992975191</v>
+        <v>0.8338591424493452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9022518254583648</v>
+        <v>0.9038892409448303</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9775</v>
+        <v>9302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01582548035755486</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06013428186622457</v>
+        <v>0.05722361718874257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1053,19 +1053,19 @@
         <v>4988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1993</v>
+        <v>1833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11028</v>
+        <v>11068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02450140057765689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009790498885520173</v>
+        <v>0.009003662696832549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05416640800986377</v>
+        <v>0.0543611579747354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1074,19 +1074,19 @@
         <v>7561</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2945</v>
+        <v>3719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15777</v>
+        <v>16683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02064968022100436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008044216482103498</v>
+        <v>0.01015810028807676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0430876794984578</v>
+        <v>0.04556216233918089</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>7359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3526</v>
+        <v>3499</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14032</v>
+        <v>15049</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0452722622091684</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02169414701223084</v>
+        <v>0.02152493985283538</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08632128435968651</v>
+        <v>0.09257900889991146</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1124,19 +1124,19 @@
         <v>9890</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4522</v>
+        <v>4540</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16821</v>
+        <v>17399</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04857737115030907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02220974874595059</v>
+        <v>0.02229725384005577</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08262029478328613</v>
+        <v>0.08545771965776089</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1145,19 +1145,19 @@
         <v>17249</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10851</v>
+        <v>10316</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27126</v>
+        <v>26220</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04711005067402695</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02963397260775759</v>
+        <v>0.02817381162134633</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07408305331613642</v>
+        <v>0.07161055308202408</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>152623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144008</v>
+        <v>144648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157323</v>
+        <v>157479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9389022574332767</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8859027546480726</v>
+        <v>0.8898380776517719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.967811917560475</v>
+        <v>0.9687739770958119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>186</v>
@@ -1195,19 +1195,19 @@
         <v>188718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180157</v>
+        <v>179621</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195296</v>
+        <v>195191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.926921228272034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8848719015702989</v>
+        <v>0.8822386313153612</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9592299009445789</v>
+        <v>0.9587133983249929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>347</v>
@@ -1216,19 +1216,19 @@
         <v>341343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330053</v>
+        <v>329498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349782</v>
+        <v>349627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9322402691049687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9014077535916873</v>
+        <v>0.8998926233191407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9552902755859077</v>
+        <v>0.9548645090284763</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5376</v>
+        <v>6408</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01172380268724857</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03709447045620515</v>
+        <v>0.04421710906980783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1149</v>
+        <v>1178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10536</v>
+        <v>10812</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0320118820009118</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00786532413708514</v>
+        <v>0.008063840050223677</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0721325464741341</v>
+        <v>0.07401852916671223</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1362,19 +1362,19 @@
         <v>6375</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2205</v>
+        <v>2099</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14113</v>
+        <v>12955</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02190796051988194</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007578040592866585</v>
+        <v>0.007214731022588871</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04850158780753447</v>
+        <v>0.04452017536388429</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>2761</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6740</v>
+        <v>7739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01905123869977414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006010184202439978</v>
+        <v>0.0061579556759809</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04650839229635056</v>
+        <v>0.0534017653820657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1412,19 +1412,19 @@
         <v>4478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11029</v>
+        <v>10179</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03065519631014306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007968880292799406</v>
+        <v>0.007837276490204499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07550816141919528</v>
+        <v>0.06968721051936991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1433,19 +1433,19 @@
         <v>7239</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3127</v>
+        <v>3161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13964</v>
+        <v>13859</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02487616347259859</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01074567285166942</v>
+        <v>0.01086330584061503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04798801259473459</v>
+        <v>0.04762960946349317</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>140456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135848</v>
+        <v>134540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143397</v>
+        <v>143202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9692249586129773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9374254862030306</v>
+        <v>0.9283996914593871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895206299503753</v>
+        <v>0.9881691878659618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1483,19 +1483,19 @@
         <v>136913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128826</v>
+        <v>129192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141536</v>
+        <v>141569</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373329216889451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8819628339150907</v>
+        <v>0.884473266302469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.968980828207844</v>
+        <v>0.9692055983433321</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -1504,19 +1504,19 @@
         <v>277371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267985</v>
+        <v>269098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283366</v>
+        <v>283223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9532158760075194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9209621144989854</v>
+        <v>0.9247856424676216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9738190486218808</v>
+        <v>0.973327401376147</v>
       </c>
     </row>
     <row r="15">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4761</v>
+        <v>6227</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02683340125040422</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1213445155949316</v>
+        <v>0.158703080598468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4687</v>
+        <v>5938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01188582978647378</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05291583218577806</v>
+        <v>0.06704094002778234</v>
       </c>
     </row>
     <row r="18">
@@ -1731,7 +1731,7 @@
         <v>38182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34474</v>
+        <v>33008</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>39235</v>
@@ -1740,7 +1740,7 @@
         <v>0.9731665987495958</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8786554844050761</v>
+        <v>0.8412969194015316</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>87523</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83889</v>
+        <v>82638</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>88576</v>
@@ -1761,7 +1761,7 @@
         <v>0.9881141702135262</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9470841678142243</v>
+        <v>0.932959059972218</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1856,19 +1856,19 @@
         <v>9671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5123</v>
+        <v>5133</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18485</v>
+        <v>17562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0199068432996782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01054563349508148</v>
+        <v>0.01056610140073463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03805004971014184</v>
+        <v>0.03615042004910477</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1877,19 +1877,19 @@
         <v>28788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18906</v>
+        <v>19513</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41156</v>
+        <v>42277</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04354489485363524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02859681889610118</v>
+        <v>0.02951474686685475</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06225294323499435</v>
+        <v>0.06394806671690115</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -1898,19 +1898,19 @@
         <v>38459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27435</v>
+        <v>27598</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52299</v>
+        <v>53986</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03353242187822792</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02392056616821856</v>
+        <v>0.02406283333268311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04559992227243091</v>
+        <v>0.04707080154923471</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>18942</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12634</v>
+        <v>12303</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27222</v>
+        <v>28192</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03899061630486256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02600725007083811</v>
+        <v>0.0253258864017422</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05603443177387026</v>
+        <v>0.05803210299911658</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -1948,19 +1948,19 @@
         <v>33708</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23283</v>
+        <v>23358</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45653</v>
+        <v>47269</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0509867881664202</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03521767732889985</v>
+        <v>0.03533168488589863</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06905484025066952</v>
+        <v>0.07149898618989418</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -1969,19 +1969,19 @@
         <v>52650</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39606</v>
+        <v>40479</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67281</v>
+        <v>68695</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04590551713619095</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03453287942845274</v>
+        <v>0.03529345224990491</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05866250710835224</v>
+        <v>0.05989552447999037</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>457191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>445838</v>
+        <v>444853</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>465242</v>
+        <v>466146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9411025403954593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9177314165891801</v>
+        <v>0.9157046082580989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9576751914832607</v>
+        <v>0.959534981903029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>587</v>
@@ -2019,19 +2019,19 @@
         <v>598616</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>583157</v>
+        <v>581615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>613149</v>
+        <v>612041</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9054683169799446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8820844019477536</v>
+        <v>0.8797525535086782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9274513047753946</v>
+        <v>0.9257757575325579</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1062</v>
@@ -2040,19 +2040,19 @@
         <v>1055807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1036098</v>
+        <v>1036196</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1073178</v>
+        <v>1073502</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9205620609855811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9033771291324543</v>
+        <v>0.903462551255748</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9357076598403958</v>
+        <v>0.9359897820833574</v>
       </c>
     </row>
     <row r="23">
@@ -2384,19 +2384,19 @@
         <v>7485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3147</v>
+        <v>3165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15357</v>
+        <v>14463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05442519433433164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02287948936623551</v>
+        <v>0.02301485877239035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1116616351480006</v>
+        <v>0.105163719811041</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2405,19 +2405,19 @@
         <v>17306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10263</v>
+        <v>10582</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26819</v>
+        <v>26735</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0802573947716034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04759340672468909</v>
+        <v>0.04907467654681207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1243727802800392</v>
+        <v>0.1239817855995914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2426,19 +2426,19 @@
         <v>24791</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16425</v>
+        <v>16135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36322</v>
+        <v>36369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07019761414769889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04650676800185605</v>
+        <v>0.04568586028858078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1028460814492481</v>
+        <v>0.1029790359556644</v>
       </c>
     </row>
     <row r="5">
@@ -2455,19 +2455,19 @@
         <v>11916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5546</v>
+        <v>6182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20905</v>
+        <v>20514</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08663947209341058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04032184007732721</v>
+        <v>0.04494602110890672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1519995716142291</v>
+        <v>0.1491545556827855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2476,19 +2476,19 @@
         <v>21593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14145</v>
+        <v>13879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32025</v>
+        <v>31139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.100135163712724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06559790273065738</v>
+        <v>0.06436519942380781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1485151483695427</v>
+        <v>0.1444064290794244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -2497,19 +2497,19 @@
         <v>33508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23705</v>
+        <v>23822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46204</v>
+        <v>47178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09487956431507168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06712242983619414</v>
+        <v>0.06745265294118415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1308280078965856</v>
+        <v>0.1335856019054362</v>
       </c>
     </row>
     <row r="6">
@@ -2526,19 +2526,19 @@
         <v>118132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107094</v>
+        <v>108452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125672</v>
+        <v>126448</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8589353335722578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.778677112966514</v>
+        <v>0.7885553548053669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9137556859721785</v>
+        <v>0.91940412779294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -2547,19 +2547,19 @@
         <v>176735</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164674</v>
+        <v>164577</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187228</v>
+        <v>187229</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8196074415156726</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.763673558541405</v>
+        <v>0.7632221581167821</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8682652967012933</v>
+        <v>0.8682729620066066</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>271</v>
@@ -2568,19 +2568,19 @@
         <v>294867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>279608</v>
+        <v>278493</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308894</v>
+        <v>308607</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8349228215372294</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7917166664972222</v>
+        <v>0.7885598201436843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8746396807681248</v>
+        <v>0.8738269608011786</v>
       </c>
     </row>
     <row r="7">
@@ -2672,19 +2672,19 @@
         <v>5086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1996</v>
+        <v>1941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11296</v>
+        <v>11924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0294902500437663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01157079782804325</v>
+        <v>0.01125601140568477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06549736060651425</v>
+        <v>0.06913603069116693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -2693,19 +2693,19 @@
         <v>16863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8786</v>
+        <v>9787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25779</v>
+        <v>27391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06825262259622282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03556116350484502</v>
+        <v>0.0396146701798498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1043407741911191</v>
+        <v>0.1108642198536092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -2714,19 +2714,19 @@
         <v>21949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13734</v>
+        <v>13292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32497</v>
+        <v>31935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05231757140134457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03273535510394816</v>
+        <v>0.03168323248509768</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07745896278008578</v>
+        <v>0.07612045211724382</v>
       </c>
     </row>
     <row r="9">
@@ -2743,19 +2743,19 @@
         <v>8701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3455</v>
+        <v>4227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18647</v>
+        <v>16993</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0504513447239425</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02003155064540172</v>
+        <v>0.0245061440568396</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1081192829183277</v>
+        <v>0.09852768695339195</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -2764,19 +2764,19 @@
         <v>31470</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22366</v>
+        <v>21927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44218</v>
+        <v>43957</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1273740200596965</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09052685748332712</v>
+        <v>0.08874859683910094</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1789728719176963</v>
+        <v>0.177913616367022</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -2785,19 +2785,19 @@
         <v>40171</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27772</v>
+        <v>28991</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52745</v>
+        <v>53360</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09575142606436178</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06619735452596701</v>
+        <v>0.06910339644633699</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1257228344930883</v>
+        <v>0.1271871882526088</v>
       </c>
     </row>
     <row r="10">
@@ -2814,19 +2814,19 @@
         <v>158682</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148217</v>
+        <v>148985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164845</v>
+        <v>164889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9200584052322912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8593799818243982</v>
+        <v>0.863832129323768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9557885375426085</v>
+        <v>0.9560458963580628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -2835,19 +2835,19 @@
         <v>198734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185390</v>
+        <v>184378</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210280</v>
+        <v>210052</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8043733573440807</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7503630500099553</v>
+        <v>0.7462652329585356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8511067543685239</v>
+        <v>0.8501805477519154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -2856,19 +2856,19 @@
         <v>357416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>341260</v>
+        <v>340854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>371838</v>
+        <v>371198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8519310025342937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8134219264143782</v>
+        <v>0.8124541760225537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8863074490065053</v>
+        <v>0.8847810654608567</v>
       </c>
     </row>
     <row r="11">
@@ -2960,19 +2960,19 @@
         <v>9432</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4063</v>
+        <v>4241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17896</v>
+        <v>18627</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05673723555697988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02443984900442471</v>
+        <v>0.02550946323175429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1076548484628778</v>
+        <v>0.1120519694882346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2981,19 +2981,19 @@
         <v>6360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2134</v>
+        <v>2175</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13849</v>
+        <v>16445</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03311519360863437</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01111239625142214</v>
+        <v>0.01132557154174939</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07210190974450373</v>
+        <v>0.08561710871826655</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3002,19 +3002,19 @@
         <v>15792</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8283</v>
+        <v>8620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26458</v>
+        <v>25578</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04407457032315603</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02311701881457236</v>
+        <v>0.02405852307153713</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07384100592608081</v>
+        <v>0.07138635540139375</v>
       </c>
     </row>
     <row r="13">
@@ -3031,19 +3031,19 @@
         <v>6455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2151</v>
+        <v>2114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16084</v>
+        <v>15589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03883004673552751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01293764129481913</v>
+        <v>0.01271945196082333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09675219526085464</v>
+        <v>0.09377973325698374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3052,19 +3052,19 @@
         <v>18220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10687</v>
+        <v>10632</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28623</v>
+        <v>28795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09486326496351573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05563875129518053</v>
+        <v>0.05535269756266806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1490243914288409</v>
+        <v>0.1499167801162328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3073,19 +3073,19 @@
         <v>24675</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15279</v>
+        <v>15707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36676</v>
+        <v>36876</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06886681857541946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04264320411746503</v>
+        <v>0.04383589560850528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1023585384525914</v>
+        <v>0.1029170277361238</v>
       </c>
     </row>
     <row r="14">
@@ -3102,19 +3102,19 @@
         <v>150348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140527</v>
+        <v>139663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158011</v>
+        <v>156963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9044327177074927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8453515031004935</v>
+        <v>0.8401545824847836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9505296162691603</v>
+        <v>0.9442251507036913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -3123,19 +3123,19 @@
         <v>167490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155239</v>
+        <v>155358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176854</v>
+        <v>176763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8720215414278499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8082361572014704</v>
+        <v>0.8088575200232304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9207757450102316</v>
+        <v>0.920298494281053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>296</v>
@@ -3144,19 +3144,19 @@
         <v>317838</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303296</v>
+        <v>302559</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330256</v>
+        <v>328776</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8870586111014245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8464730438931819</v>
+        <v>0.8444142774510024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9217151615355735</v>
+        <v>0.9175830762936178</v>
       </c>
     </row>
     <row r="15">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3269,19 +3269,19 @@
         <v>4329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9847</v>
+        <v>9748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05089632783760911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01230789274476921</v>
+        <v>0.0126243115045185</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1157759459464718</v>
+        <v>0.1146191868656614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3290,19 +3290,19 @@
         <v>5361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11867</v>
+        <v>12656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03285983540875686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01286054203057486</v>
+        <v>0.01290622575325037</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07273922798300425</v>
+        <v>0.07757313457899497</v>
       </c>
     </row>
     <row r="17">
@@ -3319,19 +3319,19 @@
         <v>3371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1053</v>
+        <v>1031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9821</v>
+        <v>9074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04316645366406982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0134849799478546</v>
+        <v>0.01319612765592266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1257588492684378</v>
+        <v>0.1161934202298164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -3340,19 +3340,19 @@
         <v>4451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10713</v>
+        <v>10561</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05232939096011446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01337499913388107</v>
+        <v>0.01343268677647878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1259606589716916</v>
+        <v>0.1241719588520452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -3361,19 +3361,19 @@
         <v>7822</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3336</v>
+        <v>3344</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15490</v>
+        <v>16576</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.047943185444729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02044880113573207</v>
+        <v>0.02049847895318044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09494804774871973</v>
+        <v>0.1016022877397207</v>
       </c>
     </row>
     <row r="18">
@@ -3390,19 +3390,19 @@
         <v>73694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67155</v>
+        <v>67174</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76906</v>
+        <v>76945</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9436160843395249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.859898351451732</v>
+        <v>0.8601364378993394</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9847522385976809</v>
+        <v>0.9852439152078252</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -3411,19 +3411,19 @@
         <v>76271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69218</v>
+        <v>68853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80721</v>
+        <v>80709</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8967742812022764</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8138475865089886</v>
+        <v>0.809560260223957</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9490963174627014</v>
+        <v>0.9489638877065705</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -3432,19 +3432,19 @@
         <v>149963</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141016</v>
+        <v>140317</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155728</v>
+        <v>155787</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9191969791465141</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8643542664326804</v>
+        <v>0.8600672139381161</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9545286083374394</v>
+        <v>0.954893235906069</v>
       </c>
     </row>
     <row r="19">
@@ -3536,19 +3536,19 @@
         <v>23035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14289</v>
+        <v>13909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33985</v>
+        <v>33147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.041555047945559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02577754171056066</v>
+        <v>0.02509121936472272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06130703752169805</v>
+        <v>0.05979643909488852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -3557,19 +3557,19 @@
         <v>44858</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32672</v>
+        <v>33293</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59633</v>
+        <v>60254</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06063403405741028</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04416215433332059</v>
+        <v>0.04500122002738065</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08060469844914445</v>
+        <v>0.08144341708385273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -3578,19 +3578,19 @@
         <v>67894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52613</v>
+        <v>52533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86293</v>
+        <v>86970</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05246180550514017</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04065431717557649</v>
+        <v>0.0405924060345134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06667873219398085</v>
+        <v>0.06720242529249312</v>
       </c>
     </row>
     <row r="21">
@@ -3607,19 +3607,19 @@
         <v>30443</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19460</v>
+        <v>19957</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43860</v>
+        <v>44963</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05491845538720568</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03510520918962745</v>
+        <v>0.03600190778791806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07912163721868025</v>
+        <v>0.0811110277381956</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -3628,19 +3628,19 @@
         <v>75733</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59782</v>
+        <v>60734</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93484</v>
+        <v>93677</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1023672684596368</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08080586388727355</v>
+        <v>0.08209302795616073</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1263609686814849</v>
+        <v>0.1266212305534983</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>95</v>
@@ -3649,19 +3649,19 @@
         <v>106177</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>85835</v>
+        <v>86162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127322</v>
+        <v>128528</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08204320392661726</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06632490092694583</v>
+        <v>0.06657751204991091</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09838206881366859</v>
+        <v>0.09931392793067696</v>
       </c>
     </row>
     <row r="22">
@@ -3678,19 +3678,19 @@
         <v>500855</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>484869</v>
+        <v>484750</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>514960</v>
+        <v>515138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9035264966672353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8746866808799723</v>
+        <v>0.8744723108946379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9289713981075938</v>
+        <v>0.9292923674221237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>581</v>
@@ -3699,19 +3699,19 @@
         <v>619229</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>597306</v>
+        <v>597721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>639257</v>
+        <v>638188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.836998697482953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8073651173055781</v>
+        <v>0.8079269568920279</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8640695064354271</v>
+        <v>0.862624279966905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1034</v>
@@ -3720,19 +3720,19 @@
         <v>1120085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1091298</v>
+        <v>1093360</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1144287</v>
+        <v>1144617</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8654949905682425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.843251511417442</v>
+        <v>0.8448446548629582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8841965626021604</v>
+        <v>0.8844508753194148</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>2582</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7231</v>
+        <v>7656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01551302722947799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004961602578331469</v>
+        <v>0.004915383928348934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04344057435395923</v>
+        <v>0.04599577907904074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4085,19 +4085,19 @@
         <v>8621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3694</v>
+        <v>3538</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16390</v>
+        <v>16528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03311131586424375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01418752185699567</v>
+        <v>0.01358634408271326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06294850941992039</v>
+        <v>0.06347871447100711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -4106,19 +4106,19 @@
         <v>11204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5595</v>
+        <v>5581</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19596</v>
+        <v>20633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0262484021860807</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01310783609754658</v>
+        <v>0.01307551235457713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04591092351794086</v>
+        <v>0.04833946497163317</v>
       </c>
     </row>
     <row r="5">
@@ -4135,19 +4135,19 @@
         <v>9687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5149</v>
+        <v>5109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16375</v>
+        <v>17289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05819485562481919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03093405563769534</v>
+        <v>0.03069479629885382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09837640847409169</v>
+        <v>0.1038676355680307</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4156,19 +4156,19 @@
         <v>25268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14935</v>
+        <v>16173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36285</v>
+        <v>36765</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09704272184528114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05735848038421193</v>
+        <v>0.06211508156953576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1393558118365579</v>
+        <v>0.1412002874276901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -4177,19 +4177,19 @@
         <v>34955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24989</v>
+        <v>24937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48325</v>
+        <v>48835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08189297870916935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05854477465279245</v>
+        <v>0.05842446676138258</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1132187490407593</v>
+        <v>0.1144119206486899</v>
       </c>
     </row>
     <row r="6">
@@ -4206,19 +4206,19 @@
         <v>154185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>147054</v>
+        <v>146553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>159711</v>
+        <v>159482</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9262921171457028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8834491340593096</v>
+        <v>0.8804432208816054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9594907393417061</v>
+        <v>0.9581124614079783</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -4227,19 +4227,19 @@
         <v>226489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>214193</v>
+        <v>214402</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>237289</v>
+        <v>237474</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8698459622904752</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8226236237270194</v>
+        <v>0.8234268471796256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9113249885951721</v>
+        <v>0.9120340906527048</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>355</v>
@@ -4248,19 +4248,19 @@
         <v>380674</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>367112</v>
+        <v>365271</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>393042</v>
+        <v>392638</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.89185861910475</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8600853206411235</v>
+        <v>0.8557725830887555</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9208361120742296</v>
+        <v>0.9198885194659679</v>
       </c>
     </row>
     <row r="7">
@@ -4352,19 +4352,19 @@
         <v>2673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7534</v>
+        <v>7155</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01574628606054165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004740466868226025</v>
+        <v>0.004667663318001342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04438090979454559</v>
+        <v>0.04214752619307528</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4373,19 +4373,19 @@
         <v>5840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2064</v>
+        <v>1393</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14864</v>
+        <v>14735</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02645065685714217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009346364357872639</v>
+        <v>0.006306699597728511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06731934070279787</v>
+        <v>0.06673104507088991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -4394,19 +4394,19 @@
         <v>8514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3929</v>
+        <v>3728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19327</v>
+        <v>17222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02179792442059461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0100591525122726</v>
+        <v>0.009545257143995036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04948542527376024</v>
+        <v>0.04409474209429763</v>
       </c>
     </row>
     <row r="9">
@@ -4423,19 +4423,19 @@
         <v>4038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8940</v>
+        <v>8319</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0237846799909303</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009028489173631202</v>
+        <v>0.009110739503386669</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05266359858412597</v>
+        <v>0.04900633501429605</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4447,16 +4447,16 @@
         <v>7373</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23055</v>
+        <v>22713</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06122785556949784</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03339155267235557</v>
+        <v>0.03339265688851524</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1044148739695225</v>
+        <v>0.1028654526592383</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>17557</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9689</v>
+        <v>10952</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27760</v>
+        <v>28433</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04495290762047194</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02480728175947196</v>
+        <v>0.02804128639521674</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07107686977794217</v>
+        <v>0.07279902229603782</v>
       </c>
     </row>
     <row r="10">
@@ -4494,19 +4494,19 @@
         <v>163052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157161</v>
+        <v>157501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166563</v>
+        <v>166600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.960469033948528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9257673737189688</v>
+        <v>0.9277694678230379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9811526693195302</v>
+        <v>0.9813657165291981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -4515,19 +4515,19 @@
         <v>201445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190376</v>
+        <v>190685</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209020</v>
+        <v>209384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.91232148757336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8621923888249207</v>
+        <v>0.8635890784827017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.946627076229305</v>
+        <v>0.9482748771439511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -4536,19 +4536,19 @@
         <v>364497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352118</v>
+        <v>351974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373329</v>
+        <v>372656</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9332491679589334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9015530329645394</v>
+        <v>0.9011849374973451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.955861756589356</v>
+        <v>0.9541397997984475</v>
       </c>
     </row>
     <row r="11">
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6208</v>
+        <v>6213</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01120408687330208</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03985224820531291</v>
+        <v>0.0398834164475806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -4661,19 +4661,19 @@
         <v>12863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6147</v>
+        <v>6066</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22998</v>
+        <v>22898</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06986823222375563</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0333860232540628</v>
+        <v>0.03294961024483394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1249150857565965</v>
+        <v>0.1243730436366594</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -4682,19 +4682,19 @@
         <v>14608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7600</v>
+        <v>7204</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26183</v>
+        <v>25950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0429814972802766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02236112048794841</v>
+        <v>0.02119467688335413</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07703782158852339</v>
+        <v>0.07635079380441549</v>
       </c>
     </row>
     <row r="13">
@@ -4711,19 +4711,19 @@
         <v>2890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7778</v>
+        <v>8061</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01855516748116638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005237273200594239</v>
+        <v>0.005194440942375101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04993510880965367</v>
+        <v>0.05174638631788872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4732,19 +4732,19 @@
         <v>6136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2278</v>
+        <v>2316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14093</v>
+        <v>14238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03333007046202435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0123729813293517</v>
+        <v>0.01257934249344723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.076549388233407</v>
+        <v>0.07733770911196036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4753,19 +4753,19 @@
         <v>9027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3902</v>
+        <v>4194</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17616</v>
+        <v>17031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02655849136735208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01148010874822128</v>
+        <v>0.01233894543085877</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05183118289789313</v>
+        <v>0.05010821492554104</v>
       </c>
     </row>
     <row r="14">
@@ -4782,19 +4782,19 @@
         <v>151135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146227</v>
+        <v>145433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154152</v>
+        <v>154147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9702407456455315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9387296880618502</v>
+        <v>0.9336304189184539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896081161782085</v>
+        <v>0.9895733914217084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>139</v>
@@ -4803,19 +4803,19 @@
         <v>165107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153111</v>
+        <v>152494</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173189</v>
+        <v>172972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.89680169731422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8316471381840662</v>
+        <v>0.8282924561254099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9407030432469203</v>
+        <v>0.9395246139949626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>299</v>
@@ -4824,19 +4824,19 @@
         <v>316242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303600</v>
+        <v>303341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325391</v>
+        <v>325113</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9304600113523713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8932653082499362</v>
+        <v>0.8925027372980181</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9573796878203089</v>
+        <v>0.9565616839159864</v>
       </c>
     </row>
     <row r="15">
@@ -4928,19 +4928,19 @@
         <v>2541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6843</v>
+        <v>7004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02889105279322598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008889319512699322</v>
+        <v>0.008747646078322773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07780904757101713</v>
+        <v>0.0796447321695174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7033</v>
+        <v>9253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01291377106915747</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06601988591837214</v>
+        <v>0.08685169818645652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4970,19 +4970,19 @@
         <v>3917</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11105</v>
+        <v>11200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02013876178982335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006978187207337313</v>
+        <v>0.004779321707651496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05710052418199896</v>
+        <v>0.0575916706190705</v>
       </c>
     </row>
     <row r="17">
@@ -4999,19 +4999,19 @@
         <v>4337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1689</v>
+        <v>1065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9984</v>
+        <v>9266</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04931465962611586</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0191998914521426</v>
+        <v>0.0121127948442715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1135229107023833</v>
+        <v>0.1053584367875936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5020,19 +5020,19 @@
         <v>3687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1176</v>
+        <v>1197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9856</v>
+        <v>9690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03460691756486531</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01103872046416773</v>
+        <v>0.01123513034842744</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09251011202612565</v>
+        <v>0.09095584691122859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -5041,19 +5041,19 @@
         <v>8024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3415</v>
+        <v>3737</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15549</v>
+        <v>15174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04125781737058164</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.017562002414178</v>
+        <v>0.01921423288737062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07995179024728773</v>
+        <v>0.07802499118423158</v>
       </c>
     </row>
     <row r="18">
@@ -5070,19 +5070,19 @@
         <v>81067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74393</v>
+        <v>75259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84507</v>
+        <v>84771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9217942875806582</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8459056623120114</v>
+        <v>0.8557501001879538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9609020017145952</v>
+        <v>0.9639066890679984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -5091,19 +5091,19 @@
         <v>101473</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94642</v>
+        <v>95058</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105157</v>
+        <v>105292</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9524793113659772</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8883595396313608</v>
+        <v>0.8922657757847704</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9870557570627103</v>
+        <v>0.9883195057146862</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>168</v>
@@ -5112,19 +5112,19 @@
         <v>182541</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>174077</v>
+        <v>174393</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>187943</v>
+        <v>188524</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.938603420839595</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8950842885971557</v>
+        <v>0.8967112450923259</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9663821630830569</v>
+        <v>0.9693685480341087</v>
       </c>
     </row>
     <row r="19">
@@ -5216,19 +5216,19 @@
         <v>9541</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5084</v>
+        <v>5063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16670</v>
+        <v>16596</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01645265638555773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008767331458325433</v>
+        <v>0.008730073440206364</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02874536193632414</v>
+        <v>0.02861734550838025</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5237,19 +5237,19 @@
         <v>28701</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18787</v>
+        <v>17205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43156</v>
+        <v>41937</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03718568193509174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02434077946436837</v>
+        <v>0.02229116022422772</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05591389412627694</v>
+        <v>0.05433475263993397</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -5258,19 +5258,19 @@
         <v>38242</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27239</v>
+        <v>27572</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53604</v>
+        <v>55060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02829075942234939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02015106408304373</v>
+        <v>0.02039731299572213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03965533474073156</v>
+        <v>0.04073207510849566</v>
       </c>
     </row>
     <row r="21">
@@ -5287,19 +5287,19 @@
         <v>20952</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14081</v>
+        <v>13971</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30029</v>
+        <v>30266</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03612807007674981</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02428113783607965</v>
+        <v>0.0240909426429576</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05177952034136975</v>
+        <v>0.05218845907823365</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -5308,19 +5308,19 @@
         <v>48610</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36078</v>
+        <v>34902</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66116</v>
+        <v>65833</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06298103764580348</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04674383753335554</v>
+        <v>0.04522045411746471</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08566182437860588</v>
+        <v>0.08529587330701842</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -5329,19 +5329,19 @@
         <v>69562</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52888</v>
+        <v>53708</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88434</v>
+        <v>88712</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05146052583274183</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03912519782341461</v>
+        <v>0.03973221068778018</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06542151840239124</v>
+        <v>0.06562689173731821</v>
       </c>
     </row>
     <row r="22">
@@ -5358,19 +5358,19 @@
         <v>549441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>538145</v>
+        <v>539220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>557763</v>
+        <v>559208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9474192735376925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9279417953799429</v>
+        <v>0.9297951339423189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9617698101252976</v>
+        <v>0.9642620645631672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>589</v>
@@ -5379,19 +5379,19 @@
         <v>694513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>673403</v>
+        <v>676205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>711279</v>
+        <v>712425</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8998332804191048</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8724827801132482</v>
+        <v>0.8761126352342598</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.921556224612925</v>
+        <v>0.9230407726346493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1170</v>
@@ -5400,19 +5400,19 @@
         <v>1243954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1223094</v>
+        <v>1220177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1265367</v>
+        <v>1261387</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9202487147449088</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9048173858975126</v>
+        <v>0.9026594896166195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9360897580853936</v>
+        <v>0.9331452712642864</v>
       </c>
     </row>
     <row r="23">
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3111</v>
+        <v>3087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065218702050177</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04624890483697006</v>
+        <v>0.04589191761354418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5765,19 +5765,19 @@
         <v>8540</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4860</v>
+        <v>4781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14438</v>
+        <v>14480</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05971247399298151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03398608889716129</v>
+        <v>0.03343351449842952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1009563053050681</v>
+        <v>0.1012527850482865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5786,19 +5786,19 @@
         <v>9150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5074</v>
+        <v>5061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15419</v>
+        <v>15709</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04350912552950814</v>
+        <v>0.04350912552950815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02413079699353417</v>
+        <v>0.02406591510102577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07332113332973698</v>
+        <v>0.07470377988868679</v>
       </c>
     </row>
     <row r="5">
@@ -5815,19 +5815,19 @@
         <v>3907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1426</v>
+        <v>1507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8306</v>
+        <v>8044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05807719350661129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02120277533655683</v>
+        <v>0.02240193541465247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1234623568967587</v>
+        <v>0.1195652643963098</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -5836,19 +5836,19 @@
         <v>13930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9027</v>
+        <v>9465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19396</v>
+        <v>19977</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09740612332572404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06311742023895427</v>
+        <v>0.0661811940188341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1356261884588952</v>
+        <v>0.1396881749292424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -5857,19 +5857,19 @@
         <v>17838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12413</v>
+        <v>12140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24886</v>
+        <v>25019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08482379579595015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05902890444494189</v>
+        <v>0.05772912233329706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1183432961405883</v>
+        <v>0.118975200257648</v>
       </c>
     </row>
     <row r="6">
@@ -5886,19 +5886,19 @@
         <v>62760</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58004</v>
+        <v>58095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65402</v>
+        <v>65288</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9328575877913386</v>
+        <v>0.9328575877913388</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8621625097961089</v>
+        <v>0.8635241429635262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9721344892756193</v>
+        <v>0.9704384734306294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -5907,19 +5907,19 @@
         <v>120543</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113229</v>
+        <v>113378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126479</v>
+        <v>126571</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8428814026812945</v>
+        <v>0.8428814026812944</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.79174176724479</v>
+        <v>0.7927807710748601</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8843865460069509</v>
+        <v>0.885033783798309</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>314</v>
@@ -5928,19 +5928,19 @@
         <v>183303</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>174805</v>
+        <v>175319</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189474</v>
+        <v>190876</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8716670786745415</v>
+        <v>0.8716670786745416</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8312570325291203</v>
+        <v>0.8337034559527821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9010124001806568</v>
+        <v>0.9076814122821626</v>
       </c>
     </row>
     <row r="7">
@@ -6032,19 +6032,19 @@
         <v>5663</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2790</v>
+        <v>2935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10065</v>
+        <v>10666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02813089846909863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01385980092379982</v>
+        <v>0.01457807702210309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04999820359993719</v>
+        <v>0.05298392995658509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -6053,19 +6053,19 @@
         <v>13989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8741</v>
+        <v>9137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20373</v>
+        <v>20412</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04626989543109122</v>
+        <v>0.04626989543109123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02891066457320873</v>
+        <v>0.03021997315167543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06738436487373567</v>
+        <v>0.06751407834502365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -6074,19 +6074,19 @@
         <v>19652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13779</v>
+        <v>13715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27658</v>
+        <v>27257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03901977915938312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02735915228418141</v>
+        <v>0.02723126111247226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05491678882747662</v>
+        <v>0.05411972102503377</v>
       </c>
     </row>
     <row r="9">
@@ -6103,19 +6103,19 @@
         <v>12430</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7676</v>
+        <v>7458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19732</v>
+        <v>19146</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0617494878222364</v>
+        <v>0.06174948782223641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03813217407726143</v>
+        <v>0.03704878257775513</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0980222427020998</v>
+        <v>0.09511212547558626</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -6124,19 +6124,19 @@
         <v>31965</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24973</v>
+        <v>24959</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41039</v>
+        <v>40611</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.105725754011139</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08260020569952779</v>
+        <v>0.08255210923276486</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1357406913630484</v>
+        <v>0.1343231557661662</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>79</v>
@@ -6145,19 +6145,19 @@
         <v>44395</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34942</v>
+        <v>35780</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54046</v>
+        <v>55628</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08814853936508144</v>
+        <v>0.08814853936508145</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06937863115028865</v>
+        <v>0.0710436281585269</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1073098278705496</v>
+        <v>0.1104518706340826</v>
       </c>
     </row>
     <row r="10">
@@ -6174,19 +6174,19 @@
         <v>183211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>175688</v>
+        <v>175304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188943</v>
+        <v>189779</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9101196137086649</v>
+        <v>0.910119613708665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8727482282609407</v>
+        <v>0.8708408971984619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9385975500946211</v>
+        <v>0.9427462047891034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>482</v>
@@ -6195,19 +6195,19 @@
         <v>256383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245755</v>
+        <v>246361</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264873</v>
+        <v>264481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8480043505577699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8128527357671554</v>
+        <v>0.8148539556636808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8760838893790198</v>
+        <v>0.8747882519571359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>748</v>
@@ -6216,19 +6216,19 @@
         <v>439594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>427236</v>
+        <v>426470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>450500</v>
+        <v>450859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8728316814755356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8482944352113145</v>
+        <v>0.8467745580065308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8944860984258294</v>
+        <v>0.8951997524199892</v>
       </c>
     </row>
     <row r="11">
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2317</v>
+        <v>1844</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001771943311357408</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01010480471347747</v>
+        <v>0.008039472828696367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -6341,19 +6341,19 @@
         <v>10073</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6206</v>
+        <v>5781</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15906</v>
+        <v>16217</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04270852264126079</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02631388892418688</v>
+        <v>0.02450927739006772</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06743809287787143</v>
+        <v>0.06875789780798049</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -6362,19 +6362,19 @@
         <v>10480</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6149</v>
+        <v>6168</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16125</v>
+        <v>16842</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02252838132789283</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01321830908913673</v>
+        <v>0.01325903661033545</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03466370226619395</v>
+        <v>0.03620568586746076</v>
       </c>
     </row>
     <row r="13">
@@ -6391,19 +6391,19 @@
         <v>7789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4239</v>
+        <v>4040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13102</v>
+        <v>13628</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0339650789908764</v>
+        <v>0.03396507899087641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01848773152993637</v>
+        <v>0.01761686078526953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05713578737442559</v>
+        <v>0.05942731102253027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -6412,19 +6412,19 @@
         <v>19198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13633</v>
+        <v>13402</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26270</v>
+        <v>25482</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08139273281121807</v>
+        <v>0.0813927328112181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05779847704136591</v>
+        <v>0.05681901509652527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1113765819436312</v>
+        <v>0.1080392200615508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -6433,19 +6433,19 @@
         <v>26986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20067</v>
+        <v>20224</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35198</v>
+        <v>36149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05801274425519212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04313818598468183</v>
+        <v>0.04347554229906341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07566630639360472</v>
+        <v>0.07770942281534113</v>
       </c>
     </row>
     <row r="14">
@@ -6462,19 +6462,19 @@
         <v>221119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215803</v>
+        <v>215262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224776</v>
+        <v>224966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9642629776977661</v>
+        <v>0.9642629776977663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9410821915167845</v>
+        <v>0.9387212981831909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9802100016135403</v>
+        <v>0.9810375728759383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>394</v>
@@ -6483,19 +6483,19 @@
         <v>206592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198483</v>
+        <v>198352</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213985</v>
+        <v>213967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8758987445475211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8415175600670941</v>
+        <v>0.8409636631885473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9072446228027504</v>
+        <v>0.9071663979728969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>710</v>
@@ -6504,19 +6504,19 @@
         <v>427712</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>418003</v>
+        <v>419032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>435904</v>
+        <v>435929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9194588744169151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8985880759937732</v>
+        <v>0.9007998045435377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.93706883493758</v>
+        <v>0.937122695097898</v>
       </c>
     </row>
     <row r="15">
@@ -6608,19 +6608,19 @@
         <v>1798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4957</v>
+        <v>5311</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008447758708174874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002657626338778073</v>
+        <v>0.002587905619575605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02329089014010017</v>
+        <v>0.0249535500062829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -6629,19 +6629,19 @@
         <v>6559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3769</v>
+        <v>3528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12495</v>
+        <v>11256</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03147768516013504</v>
+        <v>0.03147768516013505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01808993325861174</v>
+        <v>0.0169293311161992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05996581804683949</v>
+        <v>0.05401830306795893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -6650,19 +6650,19 @@
         <v>8357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4826</v>
+        <v>4926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13694</v>
+        <v>13409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01984049605331914</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01145836105874309</v>
+        <v>0.01169532450259558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03251063672718987</v>
+        <v>0.03183254723385314</v>
       </c>
     </row>
     <row r="17">
@@ -6679,19 +6679,19 @@
         <v>10115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5614</v>
+        <v>5497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16864</v>
+        <v>17091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04752337625302538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02637702478745561</v>
+        <v>0.02582612009485458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07922955576027736</v>
+        <v>0.08029659664735694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -6700,19 +6700,19 @@
         <v>16506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11370</v>
+        <v>11164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23640</v>
+        <v>23665</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07921325926547169</v>
+        <v>0.07921325926547168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05456495488675561</v>
+        <v>0.05357440999577385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1134472881283034</v>
+        <v>0.1135715412394773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -6721,19 +6721,19 @@
         <v>26621</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19190</v>
+        <v>19541</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35789</v>
+        <v>36427</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06320013120976649</v>
+        <v>0.0632001312097665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04555762007644309</v>
+        <v>0.04639231528566394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08496462910755725</v>
+        <v>0.08647857886634307</v>
       </c>
     </row>
     <row r="18">
@@ -6750,19 +6750,19 @@
         <v>200933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>193983</v>
+        <v>193900</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>205779</v>
+        <v>205850</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9440288650387998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9113774945470974</v>
+        <v>0.9109871684988095</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9667994187445695</v>
+        <v>0.9671320835358771</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>353</v>
@@ -6771,19 +6771,19 @@
         <v>185310</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>177238</v>
+        <v>177524</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191326</v>
+        <v>191386</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8893090555743932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8505744277650005</v>
+        <v>0.8519425810472351</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9181829931175397</v>
+        <v>0.9184677427919917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>639</v>
@@ -6792,19 +6792,19 @@
         <v>386242</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375989</v>
+        <v>376806</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>394456</v>
+        <v>394732</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9169593727369144</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8926185095582343</v>
+        <v>0.8945580982822923</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.936460572541005</v>
+        <v>0.9371156760431977</v>
       </c>
     </row>
     <row r="19">
@@ -6896,19 +6896,19 @@
         <v>8477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4934</v>
+        <v>4565</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14351</v>
+        <v>14214</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01192719364316251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006941792252254372</v>
+        <v>0.006422688235228287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02019094916249923</v>
+        <v>0.01999935601990491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -6917,19 +6917,19 @@
         <v>39161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30522</v>
+        <v>30467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50292</v>
+        <v>50487</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04402182047787245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03431064601446553</v>
+        <v>0.03424824775901711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05653398067484922</v>
+        <v>0.05675324855245732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -6938,19 +6938,19 @@
         <v>47638</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38143</v>
+        <v>37548</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60319</v>
+        <v>58714</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02976788628626385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02383460154155596</v>
+        <v>0.0234626172472946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03769191715332833</v>
+        <v>0.0366888901712502</v>
       </c>
     </row>
     <row r="21">
@@ -6967,19 +6967,19 @@
         <v>34242</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25127</v>
+        <v>25838</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45301</v>
+        <v>44543</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04817718807083838</v>
+        <v>0.04817718807083839</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03535361091993412</v>
+        <v>0.03635428713894751</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06373794601647129</v>
+        <v>0.06267167650214908</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>154</v>
@@ -6988,19 +6988,19 @@
         <v>81599</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69529</v>
+        <v>69336</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>95384</v>
+        <v>95600</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09172644608003722</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07815857150458107</v>
+        <v>0.07794223836880358</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1072223068461579</v>
+        <v>0.107465644540904</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>204</v>
@@ -7009,19 +7009,19 @@
         <v>115840</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>100339</v>
+        <v>100564</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132574</v>
+        <v>132170</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07238525663566667</v>
+        <v>0.07238525663566665</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0626989404768003</v>
+        <v>0.0628398382875926</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08284160947004979</v>
+        <v>0.08258925578747546</v>
       </c>
     </row>
     <row r="22">
@@ -7038,19 +7038,19 @@
         <v>668022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>656155</v>
+        <v>656887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>678605</v>
+        <v>677683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9398956182859992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9231988644107678</v>
+        <v>0.9242278044178095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9547850567789563</v>
+        <v>0.9534879499260535</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1456</v>
@@ -7059,19 +7059,19 @@
         <v>768827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>751881</v>
+        <v>751589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>782679</v>
+        <v>784461</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8642517334420903</v>
+        <v>0.8642517334420904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8452027981138088</v>
+        <v>0.8448737891061964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.879823299293672</v>
+        <v>0.8818257017272938</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2411</v>
@@ -7080,19 +7080,19 @@
         <v>1436849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1418836</v>
+        <v>1417330</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1457290</v>
+        <v>1454368</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8978468570780695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8865909518760987</v>
+        <v>0.8856495328936995</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9106198410627102</v>
+        <v>0.9087937390509965</v>
       </c>
     </row>
     <row r="23">
